--- a/docs/testcases/TC_NR.xlsx
+++ b/docs/testcases/TC_NR.xlsx
@@ -173,9 +173,6 @@
     <t>Felhasználó arra a "Sign up" gombra kattint ami a kitöltött mezők alatt található</t>
   </si>
   <si>
-    <t>Conduit_TC01_Login/Logout</t>
-  </si>
-  <si>
     <t>R02/R03</t>
   </si>
   <si>
@@ -267,9 +264,6 @@
     <t>R05/R10</t>
   </si>
   <si>
-    <t>Conduit_TC01_NewBlogPost</t>
-  </si>
-  <si>
     <t>Felhasználói regisztráció</t>
   </si>
   <si>
@@ -288,9 +282,6 @@
     <t>Blog feed megléte új bejelentkezésnél</t>
   </si>
   <si>
-    <t>Conduit_TC01_BlogFeed</t>
-  </si>
-  <si>
     <t>R09</t>
   </si>
   <si>
@@ -312,9 +303,6 @@
     <t>Felhasználó a kezdőoldalt látja viszont jobb oldalt felül a "New Article", "Settings", az adott felhasználónév és a "Log out" gombok helyett a "Sign in" és "Sign up" gombok láthatóak</t>
   </si>
   <si>
-    <t>Conduit_TC01_BlogFeed_ArtDetView</t>
-  </si>
-  <si>
     <t>Step 4</t>
   </si>
   <si>
@@ -367,9 +355,6 @@
   </si>
   <si>
     <t>Blog feed vizsgálata "oldal frissítés" után, aztán egy publikáló cikkjének megtekintése részletes nézetben, favorizálás</t>
-  </si>
-  <si>
-    <t>Conduit_TC01_EditBlogPost</t>
   </si>
   <si>
     <t>Publikált cikk szerkesztése</t>
@@ -397,9 +382,6 @@
     <t>Felhasználó a publikált cikket látja egészében, a hozzáadott szöveggel együtt</t>
   </si>
   <si>
-    <t>Conduit_TC01_DelBlogPost</t>
-  </si>
-  <si>
     <t>Publikált cikk törlése</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>A felugró ablak eltűnik és a kezdőoldal látható</t>
   </si>
   <si>
-    <t>Conduit_TC01_TagFeed</t>
-  </si>
-  <si>
     <t>Tagok általi publikáció csoportosítás</t>
   </si>
   <si>
@@ -444,9 +423,6 @@
   </si>
   <si>
     <t>Step 7</t>
-  </si>
-  <si>
-    <t>Conduit_TC01_Login/SettingsBio</t>
   </si>
   <si>
     <t>Felhasználó jobb oldalt felül a "Settings" gombra kattint</t>
@@ -479,9 +455,6 @@
   </si>
   <si>
     <t>A szöveg törlésre kerül, a "Short bio about you" placeholder-t látjuk helyette</t>
-  </si>
-  <si>
-    <t>Conduit_TC01_Login/SettingsPassw</t>
   </si>
   <si>
     <t>Felhasználói BIO kitöltés, módosítás</t>
@@ -507,6 +480,33 @@
   <si>
     <t>Felhasználó a "Password" placeholderrel ellátott mezőbe a következőt írja be:
 Abcd123$</t>
+  </si>
+  <si>
+    <t>Conduit_TC02_Login/Logout</t>
+  </si>
+  <si>
+    <t>Conduit_TC03_NewBlogPost</t>
+  </si>
+  <si>
+    <t>Conduit_TC04_BlogFeed</t>
+  </si>
+  <si>
+    <t>Conduit_TC05_BlogFeed_ArtDetView</t>
+  </si>
+  <si>
+    <t>Conduit_TC06_EditBlogPost</t>
+  </si>
+  <si>
+    <t>Conduit_TC07_DelBlogPost</t>
+  </si>
+  <si>
+    <t>Conduit_TC08_TagFeed</t>
+  </si>
+  <si>
+    <t>Conduit_TC09_Login/SettingsBio</t>
+  </si>
+  <si>
+    <t>Conduit_TC10_Login/SettingsPassw</t>
   </si>
 </sst>
 </file>
@@ -1098,25 +1098,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1219,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1155,94 +1251,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1251,22 +1263,10 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1554,8 +1554,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:E21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1565,17 +1565,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1586,44 +1586,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -1643,25 +1643,25 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
@@ -1681,22 +1681,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1706,16 +1706,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1725,8 +1725,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1739,21 +1739,21 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1763,16 +1763,16 @@
       <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="51">
+      <c r="F11" s="35">
         <v>1</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1782,8 +1782,8 @@
       <c r="B12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
       <c r="F12" s="13"/>
       <c r="G12" s="14"/>
@@ -1799,8 +1799,8 @@
       <c r="B13" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -1823,11 +1823,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1838,64 +1838,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="66" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="67"/>
-      <c r="F18" s="66" t="s">
+      <c r="E18" s="33"/>
+      <c r="F18" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1913,12 +1913,12 @@
       <c r="F19" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="G19" s="50"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="53.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1936,12 +1936,12 @@
       <c r="F20" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="50"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="126" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1959,12 +1959,12 @@
       <c r="F21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="50"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1982,12 +1982,12 @@
       <c r="F22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="50"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1999,18 +1999,18 @@
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2022,7 +2022,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
@@ -2033,12 +2033,12 @@
         <v>8</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="12"/>
@@ -2048,43 +2048,46 @@
         <v>9</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
@@ -2101,34 +2104,31 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2143,7 +2143,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2153,17 +2153,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2174,44 +2174,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -2231,25 +2231,25 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
@@ -2269,22 +2269,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2294,14 +2294,14 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2311,8 +2311,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2325,11 +2325,11 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -2342,21 +2342,21 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2366,14 +2366,14 @@
       <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2381,10 +2381,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
@@ -2407,11 +2407,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -2422,64 +2422,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2487,22 +2487,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2510,22 +2510,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>132</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2537,18 +2537,18 @@
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>133</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="88.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2556,22 +2556,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>141</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2579,22 +2579,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" s="26"/>
-      <c r="F23" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="20" t="s">
+      <c r="F23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="108.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2602,22 +2602,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="103.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2625,22 +2625,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="26"/>
       <c r="D25" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="20" t="s">
+      <c r="I25" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="21"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2648,22 +2648,22 @@
         <v>9</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C26" s="26"/>
       <c r="D26" s="25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E26" s="26"/>
-      <c r="F26" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="20" t="s">
+      <c r="F26" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="21"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2671,22 +2671,22 @@
         <v>10</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C27" s="26"/>
       <c r="D27" s="25" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="G27" s="50"/>
+        <v>140</v>
+      </c>
+      <c r="G27" s="27"/>
       <c r="H27" s="26"/>
-      <c r="I27" s="20" t="s">
+      <c r="I27" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J27" s="21"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="62.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2694,22 +2694,22 @@
         <v>11</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C28" s="26"/>
       <c r="D28" s="25" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G28" s="50"/>
+        <v>132</v>
+      </c>
+      <c r="G28" s="27"/>
       <c r="H28" s="26"/>
-      <c r="I28" s="20" t="s">
+      <c r="I28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="21"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2721,18 +2721,18 @@
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="25" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G29" s="50"/>
+        <v>133</v>
+      </c>
+      <c r="G29" s="27"/>
       <c r="H29" s="26"/>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J29" s="21"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="12"/>
     </row>
     <row r="30" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2740,85 +2740,32 @@
         <v>10</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C30" s="26"/>
       <c r="D30" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E30" s="26"/>
       <c r="F30" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G30" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="G30" s="27"/>
       <c r="H30" s="26"/>
-      <c r="I30" s="20" t="s">
+      <c r="I30" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J30" s="21"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I16:J17"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -2835,18 +2782,71 @@
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2859,8 +2859,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2870,17 +2870,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -2891,44 +2891,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -2948,25 +2948,25 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
@@ -2986,22 +2986,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3011,16 +3011,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3030,8 +3030,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3044,11 +3044,11 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -3061,21 +3061,21 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3085,16 +3085,16 @@
       <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="51">
+      <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3104,8 +3104,8 @@
       <c r="B13" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="13"/>
       <c r="G13" s="14"/>
@@ -3119,10 +3119,10 @@
         <v>8</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="9"/>
       <c r="F14" s="13"/>
       <c r="G14" s="14"/>
@@ -3145,11 +3145,11 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="55"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -3160,64 +3160,64 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="58" t="s">
+      <c r="C17" s="43"/>
+      <c r="D17" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="58" t="s">
+      <c r="E17" s="43"/>
+      <c r="F17" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="62"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="58" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="59"/>
-      <c r="K17" s="56" t="s">
+      <c r="J17" s="43"/>
+      <c r="K17" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="57"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="57"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="31"/>
     </row>
     <row r="19" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>1</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="26"/>
-      <c r="F19" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="20" t="s">
+      <c r="F19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="34"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3225,22 +3225,22 @@
         <v>2</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3248,22 +3248,22 @@
         <v>3</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3271,22 +3271,22 @@
         <v>4</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>85</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3298,7 +3298,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="50"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
@@ -3313,7 +3313,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
@@ -3328,7 +3328,7 @@
       <c r="D25" s="25"/>
       <c r="E25" s="26"/>
       <c r="F25" s="25"/>
-      <c r="G25" s="50"/>
+      <c r="G25" s="27"/>
       <c r="H25" s="26"/>
       <c r="I25" s="25"/>
       <c r="J25" s="26"/>
@@ -3339,12 +3339,12 @@
         <v>8</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="12"/>
@@ -3354,60 +3354,30 @@
         <v>9</v>
       </c>
       <c r="B27" s="22"/>
-      <c r="C27" s="24"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="22"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="7"/>
       <c r="J27" s="4"/>
       <c r="K27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I17:J18"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="F25:H25"/>
@@ -3424,18 +3394,48 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I17:J18"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3450,7 +3450,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3460,17 +3460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -3481,44 +3481,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -3538,25 +3538,25 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
@@ -3576,22 +3576,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3601,16 +3601,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3620,8 +3620,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3634,11 +3634,11 @@
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -3651,21 +3651,21 @@
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3675,16 +3675,16 @@
       <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="51">
+      <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3692,10 +3692,10 @@
         <v>6</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
@@ -3718,11 +3718,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -3733,64 +3733,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="73.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="155.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3798,22 +3798,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="50"/>
+        <v>60</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3821,22 +3821,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>70</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3844,22 +3844,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>63</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3867,22 +3867,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>65</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3890,22 +3890,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="50"/>
+        <v>67</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3913,22 +3913,22 @@
         <v>10</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="50"/>
+        <v>69</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="20" t="s">
+      <c r="I24" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="21"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="101.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3939,27 +3939,26 @@
     <row r="30" spans="1:11" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -3971,6 +3970,27 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -3982,26 +4002,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4014,8 +4014,8 @@
   </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4025,17 +4025,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4046,44 +4046,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -4103,27 +4103,27 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="71" t="s">
-        <v>73</v>
+      <c r="I5" s="58"/>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -4141,22 +4141,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4166,16 +4166,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4185,8 +4185,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4199,21 +4199,21 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="40"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="40"/>
+      <c r="J10" s="56"/>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4223,27 +4223,27 @@
       <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="52"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="52"/>
+      <c r="I11" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="36"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10">
         <v>4</v>
       </c>
-      <c r="B12" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="9"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
@@ -4257,10 +4257,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+        <v>89</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
@@ -4283,11 +4283,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4298,64 +4298,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4363,22 +4363,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="50"/>
+        <v>52</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4386,22 +4386,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>84</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4409,22 +4409,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="70"/>
+      <c r="I21" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="74"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4432,22 +4432,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>86</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="72" t="s">
+      <c r="I22" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="73"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4459,7 +4459,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="26"/>
       <c r="F23" s="25"/>
-      <c r="G23" s="50"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
       <c r="I23" s="25"/>
       <c r="J23" s="26"/>
@@ -4470,12 +4470,12 @@
         <v>8</v>
       </c>
       <c r="B24" s="22"/>
-      <c r="C24" s="24"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="7"/>
       <c r="J24" s="4"/>
       <c r="K24" s="12"/>
@@ -4485,43 +4485,41 @@
         <v>9</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:G8"/>
@@ -4532,12 +4530,31 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="F19:H19"/>
@@ -4545,23 +4562,6 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4574,8 +4574,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4586,17 +4586,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -4607,44 +4607,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -4664,27 +4664,27 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="71" t="s">
-        <v>73</v>
+      <c r="I5" s="58"/>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -4702,22 +4702,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4727,16 +4727,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4746,8 +4746,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -4760,11 +4760,11 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -4777,21 +4777,21 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4801,18 +4801,18 @@
       <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="52"/>
+      <c r="F12" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="36"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="J12" s="46"/>
+      <c r="I12" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" s="38"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4820,10 +4820,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
@@ -4846,11 +4846,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4861,64 +4861,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4926,22 +4926,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4949,22 +4949,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>94</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4972,22 +4972,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4995,22 +4995,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>98</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5018,22 +5018,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="50"/>
+        <v>91</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5041,22 +5041,22 @@
         <v>7</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C24" s="26"/>
       <c r="D24" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="50"/>
+        <v>101</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="J24" s="70"/>
+      <c r="I24" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="74"/>
       <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5064,22 +5064,22 @@
         <v>8</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="24"/>
+        <v>102</v>
+      </c>
+      <c r="C25" s="23"/>
       <c r="D25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="24"/>
+        <v>103</v>
+      </c>
+      <c r="E25" s="23"/>
       <c r="F25" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="72" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="73"/>
+      <c r="J25" s="72"/>
       <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5087,44 +5087,45 @@
         <v>9</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -5136,33 +5137,32 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="F24:H24"/>
@@ -5181,8 +5181,8 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5192,17 +5192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="58"/>
       <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5213,44 +5213,44 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="33"/>
+      <c r="I3" s="65"/>
       <c r="J3" s="5">
         <v>1</v>
       </c>
@@ -5270,25 +5270,25 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
         <v>44359</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
+      <c r="I5" s="58"/>
       <c r="J5" s="15" t="s">
         <v>43</v>
       </c>
@@ -5308,22 +5308,22 @@
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="40"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5333,16 +5333,16 @@
       <c r="B8" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="44"/>
+      <c r="F8" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="51"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5352,8 +5352,8 @@
       <c r="B9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="9"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5366,11 +5366,11 @@
       <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="9"/>
       <c r="F10" s="18"/>
       <c r="G10" s="19"/>
@@ -5383,21 +5383,21 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="40"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
+      <c r="I11" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="56"/>
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5407,16 +5407,16 @@
       <c r="B12" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="51">
+      <c r="F12" s="35">
         <v>1</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="36"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5424,10 +5424,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="9"/>
       <c r="F13" s="18"/>
       <c r="G13" s="19"/>
@@ -5450,11 +5450,11 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -5465,64 +5465,64 @@
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10">
         <v>1</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="25" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
+      <c r="F18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="21"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="12"/>
     </row>
     <row r="19" spans="1:11" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5530,22 +5530,22 @@
         <v>2</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="25" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E19" s="26"/>
       <c r="F19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="50"/>
+        <v>93</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="21"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="12"/>
     </row>
     <row r="20" spans="1:11" ht="42.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5553,22 +5553,22 @@
         <v>3</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C20" s="26"/>
       <c r="D20" s="25" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="G20" s="50"/>
+        <v>96</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="21"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5576,22 +5576,22 @@
         <v>4</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="25" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="50"/>
+        <v>109</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
+      <c r="I21" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="21"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5599,22 +5599,22 @@
         <v>5</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="25" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="50"/>
+        <v>111</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
+      <c r="I22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5622,22 +5622,22 @@
         <v>6</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="26"/>
       <c r="D23" s="25" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="50"/>
+        <v>112</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="21"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5649,7 +5649,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="26"/>
       <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="26"/>
       <c r="I24" s="25"/>
       <c r="J24" s="26"/>
@@ -5660,12 +5660,12 @@
         <v>8</v>
       </c>
       <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="7"/>
       <c r="J25" s="4"/>
       <c r="K25" s="12"/>
@@ -5675,42 +5675,44 @@
         <v>9</v>
       </c>
       <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="7"/>
       <c r="J26" s="4"/>
       <c r="K26" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -5722,6 +5724,30 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -5730,10 +5756,1731 @@
     <mergeCell ref="I16:J17"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
+        <v>44359</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="76"/>
+      <c r="K21" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J22" s="76"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>9</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
+        <v>44359</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="35">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>8</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" s="76"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>9</v>
+      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58"/>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="58"/>
+      <c r="F2" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="66">
+        <v>44359</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="59" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="56"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="56"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="56"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>6</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10">
+        <v>7</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="43"/>
+      <c r="D16" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="43"/>
+      <c r="F16" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="46"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="43"/>
+      <c r="K16" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="29"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="29"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10">
+        <v>3</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="29"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10">
+        <v>4</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="29"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10">
+        <v>5</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="29"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10">
+        <v>6</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="29"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10">
+        <v>7</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="29"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10">
+        <v>8</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10">
+        <v>9</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="29"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10">
+        <v>10</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="29"/>
+      <c r="K27" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="75">
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
@@ -5749,553 +7496,18 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
-        <v>44359</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="51">
-        <v>1</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>7</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="88.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>5</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J22" s="75"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>6</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>7</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>8</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>9</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="F16:H17"/>
+    <mergeCell ref="I16:J17"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B12:D12"/>
@@ -6306,554 +7518,11 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:K26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
-        <v>44359</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="51">
-        <v>1</v>
-      </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="43.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="98.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="74" t="s">
-        <v>73</v>
-      </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>5</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>6</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>7</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>8</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>9</v>
-      </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="A1:B1"/>
@@ -6861,619 +7530,15 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:K27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="34">
-        <v>44359</v>
-      </c>
-      <c r="G5" s="35"/>
-      <c r="H5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="40"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10">
-        <v>5</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="40"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
-        <v>6</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10">
-        <v>7</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="56" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="57"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="57"/>
-    </row>
-    <row r="18" spans="1:11" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10">
-        <v>1</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" ht="100.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10">
-        <v>2</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="50"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="12"/>
-    </row>
-    <row r="20" spans="1:11" ht="85.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10">
-        <v>3</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="50"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="21"/>
-      <c r="K20" s="12"/>
-    </row>
-    <row r="21" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10">
-        <v>4</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="50"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="21"/>
-      <c r="K21" s="12"/>
-    </row>
-    <row r="22" spans="1:11" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10">
-        <v>5</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="50"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="21"/>
-      <c r="K22" s="12"/>
-    </row>
-    <row r="23" spans="1:11" ht="87" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10">
-        <v>6</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="66" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="21"/>
-      <c r="K23" s="12"/>
-    </row>
-    <row r="24" spans="1:11" ht="44.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10">
-        <v>7</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" s="50"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="21"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="10">
-        <v>8</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="50"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="21"/>
-      <c r="K25" s="12"/>
-    </row>
-    <row r="26" spans="1:11" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10">
-        <v>9</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="21"/>
-      <c r="K26" s="12"/>
-    </row>
-    <row r="27" spans="1:11" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10">
-        <v>10</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="21"/>
-      <c r="K27" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="75">
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
@@ -7484,71 +7549,6 @@
     <mergeCell ref="I25:J25"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:J17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
